--- a/Symphony/2021/July/01.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/July/01.07.2021/MC Bank Statement June-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\July\01.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\JULY\01.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -8962,11 +8962,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -8981,6 +8976,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -32072,7 +32072,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32189,8 +32189,12 @@
         <v>10495365.258333299</v>
       </c>
       <c r="F5" s="60"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="53">
+        <v>200000</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>198</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
